--- a/NozzleDimensions.xlsx
+++ b/NozzleDimensions.xlsx
@@ -32,7 +32,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Length (m)</t>
+  </si>
+  <si>
+    <t>Distance from Centerline (m)</t>
+  </si>
   <si>
     <t>Length (m)</t>
   </si>
@@ -409,10 +415,10 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.2">
